--- a/similarities/split_global/harmonic_similarity_timestamps_98.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_98.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>jaah_35</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:37.470000', '0:00:52.210000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:37.490000', '0:00:43.170000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-35#t=37.47</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-24#t=37.49</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:7JXfQmzQwnGvbAVnV9ODpn</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['A#:min/F', 'F', 'A#:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:13.120000', '0:00:19.960000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:00:13.360000', '0:00:20.940000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db/5', 'Ab']]</t>
+          <t>['G:7', 'C:min', 'D:hdim7/C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['C:7', 'F:min', 'G:hdim7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.243000', '0:00:09.120000')]</t>
+          <t>('0:00:23.600000', '0:00:31.260000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:01:05.820000', '0:01:17.640000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=0.243']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.6</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=65.82</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>jaah_56</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['F#:min7', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:10.240000', '0:00:22.400000')]</t>
+          <t>('0:00:13.210000', '0:00:15.930000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:24.580000', '0:00:32.940000')]</t>
+          <t>('0:00:05.708194', '0:00:10.061936')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=13.21</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db/3', 'Db:min/b3', 'Ab/b5']]</t>
+          <t>['G', 'C/5', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:03.300000', '0:00:05.850000')]</t>
+          <t>('0:00:59.182426', '0:01:04.464965')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:04.540000', '0:00:13.980000')]</t>
+          <t>('0:00:55.680000', '0:01:02.280000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=3.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=4.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:54.400000', '0:01:01.440000'), ('0:01:08.820000', '0:01:17.920000')]</t>
+          <t>('0:00:42.520000', '0:00:46.360000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000'), ('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=54.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb']]</t>
+          <t>['F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:32.374988')]</t>
+          <t>('0:00:19.200000', '0:00:21.840000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:53.320000', '0:01:01.840000')]</t>
+          <t>('0:04:10.300000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=19.2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=53.32']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+          <t>('0:00:03.129454', '0:00:05.172811')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:21.820000', '0:00:28.320000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:11.960000', '0:00:17.820000')]</t>
+          <t>('0:00:01.920000', '0:00:08.320000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=21.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=11.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A#', 'A#/F', 'F:7', 'A#']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:03:54.260000', '0:04:06.860000')]</t>
+          <t>('0:00:15.530000', '0:00:16.900000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:04:29.700000', '0:04:38.420000')]</t>
+          <t>('0:00:16.800000', '0:00:19.040000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=234.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=269.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>jaah_85</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:22.100000', '0:00:29.560000')]</t>
+          <t>('0:01:23.460000', '0:01:30.900000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.540000', '0:00:18')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=22.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=83.46</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=7.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_175</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F'], ['C', 'F', 'C']]</t>
+          <t>['Ab:7', 'Db', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:02:26.280000', '0:02:29.120000'), ('0:02:23.580000', '0:02:28.160000')]</t>
+          <t>('0:01:10.740000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:41.849092', '0:01:46.934263'), ('0:01:43.520929', '0:01:48.664149')]</t>
+          <t>('0:01:55.080000', '0:02:05.160000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=146.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=70.74</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=101.849092', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=115.08</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>['G:7', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['C#:7', 'F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:27.520000', '0:00:38.500000')]</t>
+          <t>('0:00:08.960000', '0:00:11.420000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:06.940000', '0:00:19.180000')]</t>
+          <t>('0:00:49.480000', '0:00:52.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=27.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=8.96</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=49.48</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D/5', 'A/3', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['D:maj', 'A:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:28.450816', '0:00:40.095623')]</t>
+          <t>('0:00:21.740249', '0:00:26.767369')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:57.480000', '0:01:04.580000')]</t>
+          <t>('0:00:19.727000', '0:00:41.282000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=28.450816']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=57.48']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
